--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H2">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I2">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J2">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8289893333333334</v>
+        <v>1.376848666666667</v>
       </c>
       <c r="N2">
-        <v>2.486968</v>
+        <v>4.130546</v>
       </c>
       <c r="O2">
-        <v>0.06741872448909192</v>
+        <v>0.1003061556015877</v>
       </c>
       <c r="P2">
-        <v>0.06741872448909192</v>
+        <v>0.1003061556015877</v>
       </c>
       <c r="Q2">
-        <v>1.324624370627556</v>
+        <v>2.200037111695111</v>
       </c>
       <c r="R2">
-        <v>11.921619335648</v>
+        <v>19.800334005256</v>
       </c>
       <c r="S2">
-        <v>0.06622173853135006</v>
+        <v>0.09019661295302384</v>
       </c>
       <c r="T2">
-        <v>0.06622173853135005</v>
+        <v>0.09019661295302382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H3">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I3">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J3">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.848096333333334</v>
+        <v>2.848096333333333</v>
       </c>
       <c r="N3">
-        <v>8.544289000000001</v>
+        <v>8.544288999999999</v>
       </c>
       <c r="O3">
-        <v>0.2316254435305073</v>
+        <v>0.207489465542554</v>
       </c>
       <c r="P3">
-        <v>0.2316254435305073</v>
+        <v>0.207489465542554</v>
       </c>
       <c r="Q3">
-        <v>4.550912371644889</v>
+        <v>4.550912371644888</v>
       </c>
       <c r="R3">
-        <v>40.95821134480401</v>
+        <v>40.95821134480399</v>
       </c>
       <c r="S3">
-        <v>0.2275130488588074</v>
+        <v>0.186577253441017</v>
       </c>
       <c r="T3">
-        <v>0.2275130488588074</v>
+        <v>0.186577253441017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H4">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I4">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J4">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.743730666666667</v>
+        <v>7.562766000000001</v>
       </c>
       <c r="N4">
-        <v>20.231192</v>
+        <v>22.688298</v>
       </c>
       <c r="O4">
-        <v>0.5484433895144291</v>
+        <v>0.5509624997574636</v>
       </c>
       <c r="P4">
-        <v>0.5484433895144291</v>
+        <v>0.5509624997574636</v>
       </c>
       <c r="Q4">
-        <v>10.77566336601245</v>
+        <v>12.084382452392</v>
       </c>
       <c r="R4">
-        <v>96.980970294112</v>
+        <v>108.759442071528</v>
       </c>
       <c r="S4">
-        <v>0.5387060496160551</v>
+        <v>0.495432718403055</v>
       </c>
       <c r="T4">
-        <v>0.5387060496160549</v>
+        <v>0.4954327184030549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H5">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I5">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J5">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.875312666666667</v>
+        <v>1.938751333333333</v>
       </c>
       <c r="N5">
-        <v>5.625938</v>
+        <v>5.816254000000001</v>
       </c>
       <c r="O5">
-        <v>0.1525124424659717</v>
+        <v>0.1412418790983945</v>
       </c>
       <c r="P5">
-        <v>0.1525124424659717</v>
+        <v>0.1412418790983945</v>
       </c>
       <c r="Q5">
-        <v>2.996522103396444</v>
+        <v>3.097889395504889</v>
       </c>
       <c r="R5">
-        <v>26.968698930568</v>
+        <v>27.881004559544</v>
       </c>
       <c r="S5">
-        <v>0.1498046598225576</v>
+        <v>0.1270065533405213</v>
       </c>
       <c r="T5">
-        <v>0.1498046598225576</v>
+        <v>0.1270065533405212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H6">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I6">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J6">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8289893333333334</v>
+        <v>1.376848666666667</v>
       </c>
       <c r="N6">
-        <v>2.486968</v>
+        <v>4.130546</v>
       </c>
       <c r="O6">
-        <v>0.06741872448909192</v>
+        <v>0.1003061556015877</v>
       </c>
       <c r="P6">
-        <v>0.06741872448909192</v>
+        <v>0.1003061556015877</v>
       </c>
       <c r="Q6">
-        <v>0.02394314625511111</v>
+        <v>0.2465876298557778</v>
       </c>
       <c r="R6">
-        <v>0.215488316296</v>
+        <v>2.219288668702</v>
       </c>
       <c r="S6">
-        <v>0.001196985957741866</v>
+        <v>0.01010954264856391</v>
       </c>
       <c r="T6">
-        <v>0.001196985957741866</v>
+        <v>0.01010954264856391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H7">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I7">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J7">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.848096333333334</v>
+        <v>2.848096333333333</v>
       </c>
       <c r="N7">
-        <v>8.544289000000001</v>
+        <v>8.544288999999999</v>
       </c>
       <c r="O7">
-        <v>0.2316254435305073</v>
+        <v>0.207489465542554</v>
       </c>
       <c r="P7">
-        <v>0.2316254435305073</v>
+        <v>0.207489465542554</v>
       </c>
       <c r="Q7">
-        <v>0.08225966766477778</v>
+        <v>0.5100817115492221</v>
       </c>
       <c r="R7">
-        <v>0.7403370089830001</v>
+        <v>4.590735403943</v>
       </c>
       <c r="S7">
-        <v>0.004112394671699955</v>
+        <v>0.02091221210153706</v>
       </c>
       <c r="T7">
-        <v>0.004112394671699954</v>
+        <v>0.02091221210153706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H8">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I8">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J8">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.743730666666667</v>
+        <v>7.562766000000001</v>
       </c>
       <c r="N8">
-        <v>20.231192</v>
+        <v>22.688298</v>
       </c>
       <c r="O8">
-        <v>0.5484433895144291</v>
+        <v>0.5509624997574636</v>
       </c>
       <c r="P8">
-        <v>0.5484433895144291</v>
+        <v>0.5509624997574636</v>
       </c>
       <c r="Q8">
-        <v>0.1947746770248889</v>
+        <v>1.354458618614</v>
       </c>
       <c r="R8">
-        <v>1.752972093224</v>
+        <v>12.190127567526</v>
       </c>
       <c r="S8">
-        <v>0.009737339898374078</v>
+        <v>0.05552978135440868</v>
       </c>
       <c r="T8">
-        <v>0.009737339898374076</v>
+        <v>0.05552978135440868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H9">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I9">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J9">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.875312666666667</v>
+        <v>1.938751333333333</v>
       </c>
       <c r="N9">
-        <v>5.625938</v>
+        <v>5.816254000000001</v>
       </c>
       <c r="O9">
-        <v>0.1525124424659717</v>
+        <v>0.1412418790983945</v>
       </c>
       <c r="P9">
-        <v>0.1525124424659717</v>
+        <v>0.1412418790983945</v>
       </c>
       <c r="Q9">
-        <v>0.05416340554288888</v>
+        <v>0.3472219625442222</v>
       </c>
       <c r="R9">
-        <v>0.487470649886</v>
+        <v>3.124997662898</v>
       </c>
       <c r="S9">
-        <v>0.002707782643414133</v>
+        <v>0.01423532575787328</v>
       </c>
       <c r="T9">
-        <v>0.002707782643414132</v>
+        <v>0.01423532575787328</v>
       </c>
     </row>
   </sheetData>
